--- a/biology/Zoologie/Caenopedina_porphyrogigas/Caenopedina_porphyrogigas.xlsx
+++ b/biology/Zoologie/Caenopedina_porphyrogigas/Caenopedina_porphyrogigas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caenopedina porphyrogigas est une espèce d'oursins de la famille des Pedinidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caenopedina porphyrogigas est une espèce d'oursins de la famille des Pedinidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des oursins réguliers au test (coquille) sphérique et très légèrement aplati aux pôles, celui-ci mesurant jusqu'à 10 cm de diamètre. Les radioles sont bruns, et leur longueur ne dépasse par le diamètre du test[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des oursins réguliers au test (coquille) sphérique et très légèrement aplati aux pôles, celui-ci mesurant jusqu'à 10 cm de diamètre. Les radioles sont bruns, et leur longueur ne dépasse par le diamètre du test.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un oursin abyssal, qui vit dans les eaux tempérées à froides du sud-est du Pacifique, de l'Australie à la Nouvelle-Zélande, entre 350 et plus de 2 000 m de profondeur[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un oursin abyssal, qui vit dans les eaux tempérées à froides du sud-est du Pacifique, de l'Australie à la Nouvelle-Zélande, entre 350 et plus de 2 000 m de profondeur.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Caenopedina porphyrogigas  Anderson (d), 2009[3],[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Caenopedina porphyrogigas  Anderson (d), 2009,.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) Owen F. Anderson, « The giant purple pedinid a new species of Caenopedina (Echinodermata: Echinoidea: Pedinidae) from New Zealand and Australia », Zootaxa, Magnolia Press (d), vol. 2007, no 1,‎ 11 février 2009, p. 43-57 (ISSN 1175-5334 et 1175-5326, OCLC 49030618, DOI 10.11646/ZOOTAXA.2007.1.2, lire en ligne)</t>
         </is>
